--- a/4_aviation/transport_modal_share_freight/data/data.xlsx
+++ b/4_aviation/transport_modal_share_freight/data/data.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelweinold/github/phd_publication_figures/4_aviation/transport_modal_share_freight/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B762895-A7A0-574C-8D20-8447E7E052AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55950C55-6A1E-D749-BF12-53EA01D04590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17280" yWindow="760" windowWidth="17280" windowHeight="21580" xr2:uid="{349A7CA8-F8D2-2E49-A6CF-81DAB56A05EB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="share of air freight" sheetId="2" r:id="rId1"/>
+    <sheet name="US air freight trade" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="46">
   <si>
     <t>source</t>
   </si>
@@ -135,13 +136,52 @@
   </si>
   <si>
     <t>country (import/export to U.S.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.aerosuisse.ch/fileadmin/documents/Publikationen_und_Medien/Studien/2020-LLStudie_DE_ManagementSummary.pdf </t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>total trade tonnage (imports+exports)</t>
+  </si>
+  <si>
+    <t>air freight trade tonnage (imports+exports)</t>
+  </si>
+  <si>
+    <t>total trade value (bio. CHF. 2019)</t>
+  </si>
+  <si>
+    <t>air freight trade value (bio. CHF, 2019)</t>
+  </si>
+  <si>
+    <t>share of air freight (weight)</t>
+  </si>
+  <si>
+    <t>share of air freight (value)</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>world</t>
+  </si>
+  <si>
+    <t>colombia</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.icao.int/sustainability/economic-policy/Pages/Facts-and-Figures.aspx </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -153,6 +193,13 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -179,9 +226,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -496,11 +544,400 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A8CA10B-81D2-5F46-9ACD-64091629F0E4}">
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="156" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="10" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2">
+        <v>2012</v>
+      </c>
+      <c r="C2">
+        <v>67764791</v>
+      </c>
+      <c r="D2">
+        <v>194211</v>
+      </c>
+      <c r="E2">
+        <f>(D2/C2)*100</f>
+        <v>0.28659573376386566</v>
+      </c>
+      <c r="F2" s="2">
+        <v>570.5</v>
+      </c>
+      <c r="G2" s="2">
+        <v>248.70999999999998</v>
+      </c>
+      <c r="H2" s="2">
+        <f>(G2/F2)*100</f>
+        <v>43.595092024539873</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>2013</v>
+      </c>
+      <c r="C3">
+        <v>70135637</v>
+      </c>
+      <c r="D3">
+        <v>194165</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E9" si="0">(D3/C3)*100</f>
+        <v>0.27684214231917503</v>
+      </c>
+      <c r="F3" s="2">
+        <v>630.53</v>
+      </c>
+      <c r="G3" s="2">
+        <v>318.43</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" ref="H3:H9" si="1">(G3/F3)*100</f>
+        <v>50.50195866969058</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>2014</v>
+      </c>
+      <c r="C4">
+        <v>70205253</v>
+      </c>
+      <c r="D4">
+        <v>195530</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0.27851192274743314</v>
+      </c>
+      <c r="F4" s="2">
+        <v>537.67999999999995</v>
+      </c>
+      <c r="G4" s="2">
+        <v>231.56</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" si="1"/>
+        <v>43.06650796012498</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>2015</v>
+      </c>
+      <c r="C5">
+        <v>70316568</v>
+      </c>
+      <c r="D5">
+        <v>192778</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0.27415729391115906</v>
+      </c>
+      <c r="F5" s="2">
+        <v>522.91999999999996</v>
+      </c>
+      <c r="G5" s="2">
+        <v>239.37</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="1"/>
+        <v>45.775644458043303</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>2016</v>
+      </c>
+      <c r="C6">
+        <v>70514472</v>
+      </c>
+      <c r="D6">
+        <v>195960</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0.27790040036036856</v>
+      </c>
+      <c r="F6" s="2">
+        <v>564.54999999999995</v>
+      </c>
+      <c r="G6" s="2">
+        <v>269.42</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="1"/>
+        <v>47.72296519351697</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7">
+        <v>2017</v>
+      </c>
+      <c r="C7">
+        <v>72689860</v>
+      </c>
+      <c r="D7">
+        <v>199555</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0.27452934976075066</v>
+      </c>
+      <c r="F7" s="2">
+        <v>560.46</v>
+      </c>
+      <c r="G7" s="2">
+        <v>249.91</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="1"/>
+        <v>44.590158084430641</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <v>2018</v>
+      </c>
+      <c r="C8">
+        <v>71017507</v>
+      </c>
+      <c r="D8">
+        <v>200354</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0.28211916816511173</v>
+      </c>
+      <c r="F8" s="2">
+        <v>577.28</v>
+      </c>
+      <c r="G8" s="2">
+        <v>249.13</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="1"/>
+        <v>43.155834257206209</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <v>2019</v>
+      </c>
+      <c r="C9">
+        <v>70856464</v>
+      </c>
+      <c r="D9">
+        <v>190936</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.26946871071635753</v>
+      </c>
+      <c r="F9" s="2">
+        <v>588.04</v>
+      </c>
+      <c r="G9" s="2">
+        <v>255.29000000000002</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="1"/>
+        <v>43.413713352833142</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10">
+        <v>2017</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10">
+        <v>34.6</v>
+      </c>
+      <c r="F10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10">
+        <v>0.5</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11">
+        <v>2016</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11">
+        <v>0.48</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12">
+        <v>2016</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12">
+        <v>47.7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12">
+        <v>0.7</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{4B8BDDFB-F9ED-E849-A015-5B5CF33DEB0F}"/>
+    <hyperlink ref="I3:I9" r:id="rId2" display="https://www.aerosuisse.ch/fileadmin/documents/Publikationen_und_Medien/Studien/2020-LLStudie_DE_ManagementSummary.pdf " xr:uid="{72DAB372-2981-8B46-AE59-A9062FE56C7C}"/>
+    <hyperlink ref="I10" r:id="rId3" xr:uid="{866553E7-76DA-E646-8188-4D6A20389177}"/>
+    <hyperlink ref="I11" r:id="rId4" xr:uid="{600E9081-FEA2-4E4E-BB3D-7509FF14CE89}"/>
+    <hyperlink ref="I12" r:id="rId5" xr:uid="{8F9E2D99-7383-664F-9B85-E79ADFE97142}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DDDF202-2415-0B4E-9339-3AF38E285124}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView zoomScale="141" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/4_aviation/transport_modal_share_freight/data/data.xlsx
+++ b/4_aviation/transport_modal_share_freight/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelweinold/github/phd_publication_figures/4_aviation/transport_modal_share_freight/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55950C55-6A1E-D749-BF12-53EA01D04590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438744C6-3C51-6445-A2AC-737406B3BF5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17280" yWindow="760" windowWidth="17280" windowHeight="21580" xr2:uid="{349A7CA8-F8D2-2E49-A6CF-81DAB56A05EB}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{349A7CA8-F8D2-2E49-A6CF-81DAB56A05EB}"/>
   </bookViews>
   <sheets>
     <sheet name="share of air freight" sheetId="2" r:id="rId1"/>
@@ -548,7 +548,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="156" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="H10" sqref="H10:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -847,7 +847,7 @@
         <v>44</v>
       </c>
       <c r="E10">
-        <v>34.6</v>
+        <v>0.5</v>
       </c>
       <c r="F10" t="s">
         <v>44</v>
@@ -856,7 +856,7 @@
         <v>44</v>
       </c>
       <c r="H10">
-        <v>0.5</v>
+        <v>34.6</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>45</v>
@@ -876,7 +876,7 @@
         <v>44</v>
       </c>
       <c r="E11">
-        <v>12</v>
+        <v>0.48</v>
       </c>
       <c r="F11" t="s">
         <v>44</v>
@@ -885,7 +885,7 @@
         <v>44</v>
       </c>
       <c r="H11">
-        <v>0.48</v>
+        <v>12</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>45</v>
@@ -905,7 +905,7 @@
         <v>44</v>
       </c>
       <c r="E12">
-        <v>47.7</v>
+        <v>0.7</v>
       </c>
       <c r="F12" t="s">
         <v>44</v>
@@ -914,7 +914,7 @@
         <v>44</v>
       </c>
       <c r="H12">
-        <v>0.7</v>
+        <v>47.7</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>45</v>
@@ -937,7 +937,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView zoomScale="141" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1381,5 +1381,6 @@
     <hyperlink ref="D29" r:id="rId29" xr:uid="{755F647A-2C15-AB42-A217-3274384F1226}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/4_aviation/transport_modal_share_freight/data/data.xlsx
+++ b/4_aviation/transport_modal_share_freight/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelweinold/github/phd_publication_figures/4_aviation/transport_modal_share_freight/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438744C6-3C51-6445-A2AC-737406B3BF5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C0C46D-CF9F-A043-BF81-FD4FB4D00290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{349A7CA8-F8D2-2E49-A6CF-81DAB56A05EB}"/>
   </bookViews>
@@ -165,16 +165,16 @@
     <t>country</t>
   </si>
   <si>
-    <t>world</t>
-  </si>
-  <si>
-    <t>colombia</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.icao.int/sustainability/economic-policy/Pages/Facts-and-Figures.aspx </t>
+  </si>
+  <si>
+    <t>World</t>
+  </si>
+  <si>
+    <t>Colombia</t>
   </si>
 </sst>
 </file>
@@ -548,7 +548,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="156" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:H12"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -835,60 +835,60 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B10">
         <v>2017</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E10">
         <v>0.5</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H10">
         <v>34.6</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B11">
         <v>2016</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E11">
         <v>0.48</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H11">
         <v>12</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -899,25 +899,25 @@
         <v>2016</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E12">
         <v>0.7</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H12">
         <v>47.7</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
